--- a/data/original/spain/euskadi/datos-asistenciales.xlsx
+++ b/data/original/spain/euskadi/datos-asistenciales.xlsx
@@ -4718,7 +4718,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>451.0</v>
+        <v>452.0</v>
       </c>
       <c r="C71" t="n">
         <v>86.0</v>
@@ -4727,7 +4727,7 @@
         <v>63.0</v>
       </c>
       <c r="E71" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F71" t="n">
         <v>46.0</v>
@@ -4785,7 +4785,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>413.0</v>
+        <v>414.0</v>
       </c>
       <c r="C72" t="n">
         <v>74.0</v>
@@ -4794,7 +4794,7 @@
         <v>60.0</v>
       </c>
       <c r="E72" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F72" t="n">
         <v>39.0</v>
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>415.0</v>
+        <v>416.0</v>
       </c>
       <c r="C73" t="n">
         <v>71.0</v>
@@ -4859,7 +4859,7 @@
         <v>66.0</v>
       </c>
       <c r="E73" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="F73" t="n">
         <v>40.0</v>
@@ -8607,13 +8607,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>163.0</v>
+        <v>164.0</v>
       </c>
       <c r="C132" t="n">
         <v>26.0</v>
       </c>
       <c r="D132" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="E132" t="n">
         <v>7.0</v>
@@ -8670,13 +8670,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>163.0</v>
+        <v>164.0</v>
       </c>
       <c r="C133" t="n">
         <v>28.0</v>
       </c>
       <c r="D133" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="E133" t="n">
         <v>7.0</v>
@@ -8733,13 +8733,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>155.0</v>
+        <v>154.0</v>
       </c>
       <c r="C134" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="D134" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="E134" t="n">
         <v>6.0</v>
@@ -8776,7 +8776,7 @@
         <v>17.0</v>
       </c>
       <c r="Q134" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="R134" t="n">
         <v>1.0</v>
@@ -8786,6 +8786,132 @@
         <v>4.0</v>
       </c>
       <c r="U134" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="135" customHeight="true" ht="15.0">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7/10/2020</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H135"/>
+      <c r="I135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S135"/>
+      <c r="T135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="136" customHeight="true" ht="15.0">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7/11/2020</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H136"/>
+      <c r="I136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S136"/>
+      <c r="T136" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U136" t="n">
         <v>34.0</v>
       </c>
     </row>
@@ -13451,7 +13577,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C71" t="n">
         <v>8.0</v>
@@ -13460,7 +13586,7 @@
         <v>6.0</v>
       </c>
       <c r="E71" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F71" t="n">
         <v>7.0</v>
@@ -16533,7 +16659,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C119" t="n">
         <v>8.0</v>
@@ -16545,7 +16671,7 @@
         <v>0.0</v>
       </c>
       <c r="F119" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G119" t="n">
         <v>0.0</v>
@@ -17340,13 +17466,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C132" t="n">
         <v>4.0</v>
       </c>
       <c r="D132" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E132" t="n">
         <v>4.0</v>
@@ -17519,6 +17645,132 @@
         <v>0.0</v>
       </c>
       <c r="U134" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="135" customHeight="true" ht="15.0">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7/10/2020</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H135"/>
+      <c r="I135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S135"/>
+      <c r="T135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="136" customHeight="true" ht="15.0">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7/11/2020</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H136"/>
+      <c r="I136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S136"/>
+      <c r="T136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U136" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -22381,7 +22633,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C74" t="n">
         <v>3.0</v>
@@ -22390,7 +22642,7 @@
         <v>0.0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F74" t="n">
         <v>1.0</v>
@@ -26199,10 +26451,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="C134" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D134" t="n">
         <v>5.0</v>
@@ -26242,7 +26494,7 @@
         <v>3.0</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R134" t="n">
         <v>0.0</v>
@@ -26252,6 +26504,132 @@
         <v>0.0</v>
       </c>
       <c r="U134" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="135" customHeight="true" ht="15.0">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7/10/2020</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H135"/>
+      <c r="I135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S135"/>
+      <c r="T135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="136" customHeight="true" ht="15.0">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7/11/2020</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H136"/>
+      <c r="I136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S136"/>
+      <c r="T136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U136" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -30999,7 +31377,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C119" t="n">
         <v>2.0</v>
@@ -31011,7 +31389,7 @@
         <v>1.0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G119"/>
       <c r="H119"/>
@@ -31036,7 +31414,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C120" t="n">
         <v>2.0</v>
@@ -31047,7 +31425,9 @@
       <c r="E120" t="n">
         <v>1.0</v>
       </c>
-      <c r="F120"/>
+      <c r="F120" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G120"/>
       <c r="H120"/>
       <c r="I120"/>
@@ -31071,7 +31451,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C121" t="n">
         <v>2.0</v>
@@ -31082,7 +31462,9 @@
       <c r="E121" t="n">
         <v>0.0</v>
       </c>
-      <c r="F121"/>
+      <c r="F121" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121"/>
@@ -31106,7 +31488,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C122" t="n">
         <v>2.0</v>
@@ -31115,7 +31497,9 @@
         <v>5.0</v>
       </c>
       <c r="E122"/>
-      <c r="F122"/>
+      <c r="F122" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G122" t="n">
         <v>0.0</v>
       </c>
@@ -31141,7 +31525,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C123" t="n">
         <v>2.0</v>
@@ -31150,7 +31534,9 @@
         <v>5.0</v>
       </c>
       <c r="E123"/>
-      <c r="F123"/>
+      <c r="F123" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G123"/>
       <c r="H123"/>
       <c r="I123"/>
@@ -31174,7 +31560,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C124" t="n">
         <v>2.0</v>
@@ -31183,7 +31569,9 @@
         <v>6.0</v>
       </c>
       <c r="E124"/>
-      <c r="F124"/>
+      <c r="F124" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G124"/>
       <c r="H124"/>
       <c r="I124"/>
@@ -31207,7 +31595,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C125" t="n">
         <v>1.0</v>
@@ -31216,7 +31604,9 @@
         <v>7.0</v>
       </c>
       <c r="E125"/>
-      <c r="F125"/>
+      <c r="F125" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G125" t="n">
         <v>1.0</v>
       </c>
@@ -31242,7 +31632,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C126" t="n">
         <v>1.0</v>
@@ -31251,7 +31641,9 @@
         <v>7.0</v>
       </c>
       <c r="E126"/>
-      <c r="F126"/>
+      <c r="F126" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G126" t="n">
         <v>1.0</v>
       </c>
@@ -31277,7 +31669,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C127" t="n">
         <v>1.0</v>
@@ -31286,7 +31678,9 @@
         <v>7.0</v>
       </c>
       <c r="E127"/>
-      <c r="F127"/>
+      <c r="F127" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G127" t="n">
         <v>0.0</v>
       </c>
@@ -31312,7 +31706,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C128" t="n">
         <v>1.0</v>
@@ -31321,7 +31715,9 @@
         <v>8.0</v>
       </c>
       <c r="E128"/>
-      <c r="F128"/>
+      <c r="F128" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G128"/>
       <c r="H128"/>
       <c r="I128"/>
@@ -31345,7 +31741,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C129" t="n">
         <v>1.0</v>
@@ -31354,7 +31750,9 @@
         <v>8.0</v>
       </c>
       <c r="E129"/>
-      <c r="F129"/>
+      <c r="F129" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G129" t="n">
         <v>1.0</v>
       </c>
@@ -31380,7 +31778,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C130" t="n">
         <v>1.0</v>
@@ -31389,7 +31787,9 @@
         <v>8.0</v>
       </c>
       <c r="E130"/>
-      <c r="F130"/>
+      <c r="F130" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G130" t="n">
         <v>1.0</v>
       </c>
@@ -31415,7 +31815,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C131" t="n">
         <v>1.0</v>
@@ -31424,7 +31824,9 @@
         <v>8.0</v>
       </c>
       <c r="E131"/>
-      <c r="F131"/>
+      <c r="F131" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G131" t="n">
         <v>2.0</v>
       </c>
@@ -31450,7 +31852,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C132" t="n">
         <v>2.0</v>
@@ -31459,7 +31861,9 @@
         <v>8.0</v>
       </c>
       <c r="E132"/>
-      <c r="F132"/>
+      <c r="F132" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G132" t="n">
         <v>1.0</v>
       </c>
@@ -31485,7 +31889,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C133" t="n">
         <v>2.0</v>
@@ -31494,7 +31898,9 @@
         <v>6.0</v>
       </c>
       <c r="E133"/>
-      <c r="F133"/>
+      <c r="F133" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G133" t="n">
         <v>1.0</v>
       </c>
@@ -31520,7 +31926,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C134" t="n">
         <v>3.0</v>
@@ -31529,7 +31935,9 @@
         <v>5.0</v>
       </c>
       <c r="E134"/>
-      <c r="F134"/>
+      <c r="F134" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G134" t="n">
         <v>0.0</v>
       </c>
@@ -31547,6 +31955,76 @@
       <c r="S134"/>
       <c r="T134"/>
       <c r="U134"/>
+    </row>
+    <row r="135" customHeight="true" ht="15.0">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7/10/2020</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E135"/>
+      <c r="F135" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135"/>
+      <c r="U135"/>
+    </row>
+    <row r="136" customHeight="true" ht="15.0">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7/11/2020</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E136"/>
+      <c r="F136" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136"/>
+      <c r="T136"/>
+      <c r="U136"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -36295,7 +36773,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C119" t="n">
         <v>0.0</v>
@@ -36307,7 +36785,7 @@
         <v>0.0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G119"/>
       <c r="H119"/>
@@ -36343,7 +36821,9 @@
       <c r="E120" t="n">
         <v>1.0</v>
       </c>
-      <c r="F120"/>
+      <c r="F120" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G120"/>
       <c r="H120"/>
       <c r="I120"/>
@@ -36378,7 +36858,9 @@
       <c r="E121" t="n">
         <v>0.0</v>
       </c>
-      <c r="F121"/>
+      <c r="F121" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121"/>
@@ -36411,7 +36893,9 @@
         <v>0.0</v>
       </c>
       <c r="E122"/>
-      <c r="F122"/>
+      <c r="F122" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G122" t="n">
         <v>1.0</v>
       </c>
@@ -36446,7 +36930,9 @@
         <v>0.0</v>
       </c>
       <c r="E123"/>
-      <c r="F123"/>
+      <c r="F123" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G123"/>
       <c r="H123"/>
       <c r="I123"/>
@@ -36479,7 +36965,9 @@
         <v>2.0</v>
       </c>
       <c r="E124"/>
-      <c r="F124"/>
+      <c r="F124" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G124"/>
       <c r="H124"/>
       <c r="I124"/>
@@ -36512,7 +37000,9 @@
         <v>1.0</v>
       </c>
       <c r="E125"/>
-      <c r="F125"/>
+      <c r="F125" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G125" t="n">
         <v>1.0</v>
       </c>
@@ -36547,7 +37037,9 @@
         <v>1.0</v>
       </c>
       <c r="E126"/>
-      <c r="F126"/>
+      <c r="F126" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G126" t="n">
         <v>0.0</v>
       </c>
@@ -36582,7 +37074,9 @@
         <v>0.0</v>
       </c>
       <c r="E127"/>
-      <c r="F127"/>
+      <c r="F127" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G127" t="n">
         <v>0.0</v>
       </c>
@@ -36617,7 +37111,9 @@
         <v>1.0</v>
       </c>
       <c r="E128"/>
-      <c r="F128"/>
+      <c r="F128" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G128"/>
       <c r="H128"/>
       <c r="I128"/>
@@ -36650,7 +37146,9 @@
         <v>0.0</v>
       </c>
       <c r="E129"/>
-      <c r="F129"/>
+      <c r="F129" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G129" t="n">
         <v>1.0</v>
       </c>
@@ -36685,7 +37183,9 @@
         <v>1.0</v>
       </c>
       <c r="E130"/>
-      <c r="F130"/>
+      <c r="F130" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G130" t="n">
         <v>0.0</v>
       </c>
@@ -36720,7 +37220,9 @@
         <v>1.0</v>
       </c>
       <c r="E131"/>
-      <c r="F131"/>
+      <c r="F131" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G131" t="n">
         <v>1.0</v>
       </c>
@@ -36755,7 +37257,9 @@
         <v>0.0</v>
       </c>
       <c r="E132"/>
-      <c r="F132"/>
+      <c r="F132" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G132" t="n">
         <v>0.0</v>
       </c>
@@ -36790,7 +37294,9 @@
         <v>1.0</v>
       </c>
       <c r="E133"/>
-      <c r="F133"/>
+      <c r="F133" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G133" t="n">
         <v>0.0</v>
       </c>
@@ -36825,7 +37331,9 @@
         <v>0.0</v>
       </c>
       <c r="E134"/>
-      <c r="F134"/>
+      <c r="F134" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G134" t="n">
         <v>0.0</v>
       </c>
@@ -36843,6 +37351,76 @@
       <c r="S134"/>
       <c r="T134"/>
       <c r="U134"/>
+    </row>
+    <row r="135" customHeight="true" ht="15.0">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7/10/2020</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E135"/>
+      <c r="F135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135"/>
+      <c r="U135"/>
+    </row>
+    <row r="136" customHeight="true" ht="15.0">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7/11/2020</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E136"/>
+      <c r="F136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136"/>
+      <c r="T136"/>
+      <c r="U136"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -41636,7 +42214,9 @@
       <c r="E120" t="n">
         <v>1.0</v>
       </c>
-      <c r="F120"/>
+      <c r="F120" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G120"/>
       <c r="H120"/>
       <c r="I120"/>
@@ -41671,7 +42251,9 @@
       <c r="E121" t="n">
         <v>1.0</v>
       </c>
-      <c r="F121"/>
+      <c r="F121" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121"/>
@@ -41704,7 +42286,9 @@
         <v>0.0</v>
       </c>
       <c r="E122"/>
-      <c r="F122"/>
+      <c r="F122" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G122" t="n">
         <v>1.0</v>
       </c>
@@ -41739,7 +42323,9 @@
         <v>0.0</v>
       </c>
       <c r="E123"/>
-      <c r="F123"/>
+      <c r="F123" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G123"/>
       <c r="H123"/>
       <c r="I123"/>
@@ -41772,7 +42358,9 @@
         <v>1.0</v>
       </c>
       <c r="E124"/>
-      <c r="F124"/>
+      <c r="F124" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G124"/>
       <c r="H124"/>
       <c r="I124"/>
@@ -41805,7 +42393,9 @@
         <v>0.0</v>
       </c>
       <c r="E125"/>
-      <c r="F125"/>
+      <c r="F125" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G125" t="n">
         <v>0.0</v>
       </c>
@@ -41840,7 +42430,9 @@
         <v>1.0</v>
       </c>
       <c r="E126"/>
-      <c r="F126"/>
+      <c r="F126" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G126" t="n">
         <v>0.0</v>
       </c>
@@ -41875,7 +42467,9 @@
         <v>0.0</v>
       </c>
       <c r="E127"/>
-      <c r="F127"/>
+      <c r="F127" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G127" t="n">
         <v>1.0</v>
       </c>
@@ -41910,7 +42504,9 @@
         <v>0.0</v>
       </c>
       <c r="E128"/>
-      <c r="F128"/>
+      <c r="F128" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G128"/>
       <c r="H128"/>
       <c r="I128"/>
@@ -41943,7 +42539,9 @@
         <v>0.0</v>
       </c>
       <c r="E129"/>
-      <c r="F129"/>
+      <c r="F129" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G129" t="n">
         <v>0.0</v>
       </c>
@@ -41978,7 +42576,9 @@
         <v>1.0</v>
       </c>
       <c r="E130"/>
-      <c r="F130"/>
+      <c r="F130" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G130" t="n">
         <v>0.0</v>
       </c>
@@ -42013,7 +42613,9 @@
         <v>1.0</v>
       </c>
       <c r="E131"/>
-      <c r="F131"/>
+      <c r="F131" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G131" t="n">
         <v>0.0</v>
       </c>
@@ -42048,7 +42650,9 @@
         <v>0.0</v>
       </c>
       <c r="E132"/>
-      <c r="F132"/>
+      <c r="F132" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G132" t="n">
         <v>1.0</v>
       </c>
@@ -42083,7 +42687,9 @@
         <v>3.0</v>
       </c>
       <c r="E133"/>
-      <c r="F133"/>
+      <c r="F133" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G133" t="n">
         <v>0.0</v>
       </c>
@@ -42118,7 +42724,9 @@
         <v>1.0</v>
       </c>
       <c r="E134"/>
-      <c r="F134"/>
+      <c r="F134" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G134" t="n">
         <v>1.0</v>
       </c>
@@ -42136,6 +42744,76 @@
       <c r="S134"/>
       <c r="T134"/>
       <c r="U134"/>
+    </row>
+    <row r="135" customHeight="true" ht="15.0">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7/10/2020</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E135"/>
+      <c r="F135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135"/>
+      <c r="U135"/>
+    </row>
+    <row r="136" customHeight="true" ht="15.0">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7/11/2020</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E136"/>
+      <c r="F136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136"/>
+      <c r="T136"/>
+      <c r="U136"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -42338,7 +43016,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>979.0</v>
+        <v>981.0</v>
       </c>
       <c r="C4" t="n">
         <v>241.0</v>
@@ -42380,7 +43058,7 @@
         <v>1.0</v>
       </c>
       <c r="P4" t="n">
-        <v>189.0</v>
+        <v>191.0</v>
       </c>
       <c r="Q4" t="n">
         <v>66.0</v>
@@ -50934,6 +51612,132 @@
         <v>0.0</v>
       </c>
       <c r="U135" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="136" customHeight="true" ht="15.0">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7/10/2020</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H136"/>
+      <c r="I136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S136"/>
+      <c r="T136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U136" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="137" customHeight="true" ht="15.0">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7/11/2020</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H137"/>
+      <c r="I137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S137"/>
+      <c r="T137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U137" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -56646,7 +57450,9 @@
       <c r="G98" t="n">
         <v>0.0</v>
       </c>
-      <c r="H98"/>
+      <c r="H98" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I98"/>
       <c r="J98" t="n">
         <v>0.0</v>
@@ -56703,7 +57509,9 @@
       <c r="G99" t="n">
         <v>0.0</v>
       </c>
-      <c r="H99"/>
+      <c r="H99" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I99"/>
       <c r="J99" t="n">
         <v>0.0</v>
@@ -56760,7 +57568,9 @@
       <c r="G100" t="n">
         <v>0.0</v>
       </c>
-      <c r="H100"/>
+      <c r="H100" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I100"/>
       <c r="J100" t="n">
         <v>0.0</v>
@@ -56800,13 +57610,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C101" t="n">
         <v>2.0</v>
       </c>
       <c r="D101" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E101" t="n">
         <v>0.0</v>
@@ -56817,7 +57627,9 @@
       <c r="G101" t="n">
         <v>1.0</v>
       </c>
-      <c r="H101"/>
+      <c r="H101" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I101"/>
       <c r="J101" t="n">
         <v>0.0</v>
@@ -56874,7 +57686,9 @@
       <c r="G102" t="n">
         <v>1.0</v>
       </c>
-      <c r="H102"/>
+      <c r="H102" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I102" t="n">
         <v>1.0</v>
       </c>
@@ -56931,7 +57745,9 @@
       <c r="G103" t="n">
         <v>1.0</v>
       </c>
-      <c r="H103"/>
+      <c r="H103" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I103" t="n">
         <v>0.0</v>
       </c>
@@ -56971,7 +57787,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C104" t="n">
         <v>1.0</v>
@@ -56996,7 +57812,7 @@
         <v>0.0</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L104" t="n">
         <v>0.0</v>
@@ -57238,13 +58054,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C109" t="n">
         <v>2.0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E109" t="n">
         <v>2.0</v>
@@ -57348,10 +58164,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D111" t="n">
         <v>3.0</v>
@@ -57366,7 +58182,9 @@
         <v>1.0</v>
       </c>
       <c r="H111"/>
-      <c r="I111"/>
+      <c r="I111" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111"/>
@@ -57395,7 +58213,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C112" t="n">
         <v>2.0</v>
@@ -57407,7 +58225,7 @@
         <v>0.0</v>
       </c>
       <c r="F112" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G112" t="n">
         <v>1.0</v>
@@ -57415,7 +58233,9 @@
       <c r="H112" t="n">
         <v>1.0</v>
       </c>
-      <c r="I112"/>
+      <c r="I112" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112"/>
@@ -57632,7 +58452,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C117" t="n">
         <v>5.0</v>
@@ -57666,7 +58486,7 @@
       </c>
       <c r="O117"/>
       <c r="P117" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q117" t="n">
         <v>0.0</v>
@@ -57738,7 +58558,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C119" t="n">
         <v>0.0</v>
@@ -57774,7 +58594,7 @@
       </c>
       <c r="O119"/>
       <c r="P119" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q119" t="n">
         <v>1.0</v>
@@ -57944,7 +58764,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C123" t="n">
         <v>2.0</v>
@@ -57980,7 +58800,7 @@
         <v>1.0</v>
       </c>
       <c r="P123" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q123" t="n">
         <v>0.0</v>
@@ -58050,7 +58870,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C125" t="n">
         <v>1.0</v>
@@ -58070,7 +58890,9 @@
       <c r="H125" t="n">
         <v>0.0</v>
       </c>
-      <c r="I125"/>
+      <c r="I125" t="n">
+        <v>1.0</v>
+      </c>
       <c r="J125"/>
       <c r="K125" t="n">
         <v>0.0</v>
@@ -58121,7 +58943,9 @@
       <c r="H126" t="n">
         <v>0.0</v>
       </c>
-      <c r="I126"/>
+      <c r="I126" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J126"/>
       <c r="K126" t="n">
         <v>0.0</v>
@@ -58170,7 +58994,9 @@
         <v>0.0</v>
       </c>
       <c r="H127"/>
-      <c r="I127"/>
+      <c r="I127" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J127"/>
       <c r="K127"/>
       <c r="L127" t="n">
@@ -58201,7 +59027,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C128" t="n">
         <v>0.0</v>
@@ -58216,15 +59042,19 @@
         <v>0.0</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H128"/>
-      <c r="I128"/>
+      <c r="I128" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J128"/>
       <c r="K128" t="n">
         <v>1.0</v>
       </c>
-      <c r="L128"/>
+      <c r="L128" t="n">
+        <v>1.0</v>
+      </c>
       <c r="M128"/>
       <c r="N128" t="n">
         <v>0.0</v>
@@ -58268,7 +59098,9 @@
         <v>2.0</v>
       </c>
       <c r="H129"/>
-      <c r="I129"/>
+      <c r="I129" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J129" t="n">
         <v>1.0</v>
       </c>
@@ -58321,7 +59153,9 @@
         <v>0.0</v>
       </c>
       <c r="H130"/>
-      <c r="I130"/>
+      <c r="I130" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J130" t="n">
         <v>1.0</v>
       </c>
@@ -58370,7 +59204,9 @@
         <v>0.0</v>
       </c>
       <c r="H131"/>
-      <c r="I131"/>
+      <c r="I131" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J131" t="n">
         <v>0.0</v>
       </c>
@@ -58401,7 +59237,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C132" t="n">
         <v>2.0</v>
@@ -58419,23 +59255,115 @@
         <v>0.0</v>
       </c>
       <c r="H132"/>
-      <c r="I132"/>
+      <c r="I132" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J132" t="n">
         <v>0.0</v>
       </c>
       <c r="K132"/>
-      <c r="L132"/>
+      <c r="L132" t="n">
+        <v>1.0</v>
+      </c>
       <c r="M132"/>
       <c r="N132"/>
       <c r="O132"/>
       <c r="P132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q132"/>
+        <v>1.0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0.0</v>
+      </c>
       <c r="R132"/>
       <c r="S132"/>
       <c r="T132"/>
       <c r="U132"/>
+    </row>
+    <row r="133" customHeight="true" ht="15.0">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>7/10/2020</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R133"/>
+      <c r="S133"/>
+      <c r="T133"/>
+      <c r="U133"/>
+    </row>
+    <row r="134" customHeight="true" ht="15.0">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>7/11/2020</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q134"/>
+      <c r="R134"/>
+      <c r="S134"/>
+      <c r="T134"/>
+      <c r="U134"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -62903,7 +63831,9 @@
       <c r="E113" t="n">
         <v>0.0</v>
       </c>
-      <c r="F113"/>
+      <c r="F113" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G113"/>
       <c r="H113"/>
       <c r="I113"/>
@@ -62936,7 +63866,9 @@
       <c r="E114" t="n">
         <v>0.0</v>
       </c>
-      <c r="F114"/>
+      <c r="F114" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G114"/>
       <c r="H114"/>
       <c r="I114"/>
@@ -63364,7 +64296,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C127"/>
       <c r="D127" t="n">
@@ -63372,7 +64304,9 @@
       </c>
       <c r="E127"/>
       <c r="F127"/>
-      <c r="G127"/>
+      <c r="G127" t="n">
+        <v>1.0</v>
+      </c>
       <c r="H127"/>
       <c r="I127"/>
       <c r="J127"/>
@@ -63403,7 +64337,9 @@
       </c>
       <c r="E128"/>
       <c r="F128"/>
-      <c r="G128"/>
+      <c r="G128" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H128"/>
       <c r="I128"/>
       <c r="J128"/>
@@ -63426,7 +64362,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C129"/>
       <c r="D129" t="n">
@@ -63434,7 +64370,9 @@
       </c>
       <c r="E129"/>
       <c r="F129"/>
-      <c r="G129"/>
+      <c r="G129" t="n">
+        <v>1.0</v>
+      </c>
       <c r="H129"/>
       <c r="I129"/>
       <c r="J129"/>
@@ -63465,7 +64403,9 @@
       </c>
       <c r="E130"/>
       <c r="F130"/>
-      <c r="G130"/>
+      <c r="G130" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H130"/>
       <c r="I130"/>
       <c r="J130"/>
@@ -63498,7 +64438,9 @@
       </c>
       <c r="E131"/>
       <c r="F131"/>
-      <c r="G131"/>
+      <c r="G131" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H131"/>
       <c r="I131"/>
       <c r="J131"/>
@@ -63526,10 +64468,14 @@
       <c r="C132" t="n">
         <v>1.0</v>
       </c>
-      <c r="D132"/>
+      <c r="D132" t="n">
+        <v>0.0</v>
+      </c>
       <c r="E132"/>
       <c r="F132"/>
-      <c r="G132"/>
+      <c r="G132" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H132"/>
       <c r="I132"/>
       <c r="J132"/>
@@ -63545,6 +64491,74 @@
       <c r="T132"/>
       <c r="U132"/>
     </row>
+    <row r="133" customHeight="true" ht="15.0">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>7/10/2020</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E133"/>
+      <c r="F133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
+      <c r="R133"/>
+      <c r="S133"/>
+      <c r="T133"/>
+      <c r="U133"/>
+    </row>
+    <row r="134" customHeight="true" ht="15.0">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>7/11/2020</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134"/>
+      <c r="S134"/>
+      <c r="T134"/>
+      <c r="U134"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data/original/spain/euskadi/datos-asistenciales.xlsx
+++ b/data/original/spain/euskadi/datos-asistenciales.xlsx
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1109.0</v>
+        <v>1107.0</v>
       </c>
       <c r="C47" t="n">
-        <v>163.0</v>
+        <v>161.0</v>
       </c>
       <c r="D47" t="n">
         <v>174.0</v>
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1038.0</v>
+        <v>1036.0</v>
       </c>
       <c r="C48" t="n">
-        <v>145.0</v>
+        <v>143.0</v>
       </c>
       <c r="D48" t="n">
         <v>149.0</v>
@@ -3248,10 +3248,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>966.0</v>
+        <v>964.0</v>
       </c>
       <c r="C49" t="n">
-        <v>133.0</v>
+        <v>131.0</v>
       </c>
       <c r="D49" t="n">
         <v>136.0</v>
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>924.0</v>
+        <v>922.0</v>
       </c>
       <c r="C50" t="n">
-        <v>123.0</v>
+        <v>121.0</v>
       </c>
       <c r="D50" t="n">
         <v>126.0</v>
@@ -3382,10 +3382,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>843.0</v>
+        <v>841.0</v>
       </c>
       <c r="C51" t="n">
-        <v>112.0</v>
+        <v>110.0</v>
       </c>
       <c r="D51" t="n">
         <v>114.0</v>
@@ -3449,10 +3449,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>833.0</v>
+        <v>831.0</v>
       </c>
       <c r="C52" t="n">
-        <v>108.0</v>
+        <v>106.0</v>
       </c>
       <c r="D52" t="n">
         <v>118.0</v>
@@ -3516,10 +3516,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>833.0</v>
+        <v>831.0</v>
       </c>
       <c r="C53" t="n">
-        <v>110.0</v>
+        <v>108.0</v>
       </c>
       <c r="D53" t="n">
         <v>115.0</v>
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>279.0</v>
+        <v>280.0</v>
       </c>
       <c r="C86" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="D86" t="n">
         <v>48.0</v>
@@ -8180,13 +8180,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>181.0</v>
+        <v>182.0</v>
       </c>
       <c r="C125" t="n">
         <v>36.0</v>
       </c>
       <c r="D125" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="E125" t="n">
         <v>7.0</v>
@@ -8241,13 +8241,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>168.0</v>
+        <v>169.0</v>
       </c>
       <c r="C126" t="n">
         <v>32.0</v>
       </c>
       <c r="D126" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="E126" t="n">
         <v>7.0</v>
@@ -8859,7 +8859,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>150.0</v>
+        <v>151.0</v>
       </c>
       <c r="C136" t="n">
         <v>25.0</v>
@@ -8871,7 +8871,7 @@
         <v>8.0</v>
       </c>
       <c r="F136" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G136" t="n">
         <v>4.0</v>
@@ -8912,6 +8912,132 @@
         <v>4.0</v>
       </c>
       <c r="U136" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="137" customHeight="true" ht="15.0">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7/12/2020</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H137"/>
+      <c r="I137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S137"/>
+      <c r="T137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U137" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="138" customHeight="true" ht="15.0">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7/13/2020</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H138"/>
+      <c r="I138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S138"/>
+      <c r="T138" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U138" t="n">
         <v>34.0</v>
       </c>
     </row>
@@ -11973,10 +12099,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>64.0</v>
+        <v>62.0</v>
       </c>
       <c r="C47" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D47" t="n">
         <v>9.0</v>
@@ -14566,10 +14692,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C86" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D86" t="n">
         <v>3.0</v>
@@ -17039,13 +17165,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C125" t="n">
         <v>3.0</v>
       </c>
       <c r="D125" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E125" t="n">
         <v>1.0</v>
@@ -17718,7 +17844,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C136" t="n">
         <v>3.0</v>
@@ -17730,7 +17856,7 @@
         <v>0.0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G136" t="n">
         <v>0.0</v>
@@ -17771,6 +17897,132 @@
         <v>0.0</v>
       </c>
       <c r="U136" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="137" customHeight="true" ht="15.0">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7/12/2020</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H137"/>
+      <c r="I137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S137"/>
+      <c r="T137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U137" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="138" customHeight="true" ht="15.0">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7/13/2020</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H138"/>
+      <c r="I138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S138"/>
+      <c r="T138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U138" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -21301,10 +21553,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>117.0</v>
+        <v>115.0</v>
       </c>
       <c r="C54" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="D54" t="n">
         <v>26.0</v>
@@ -23488,10 +23740,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C87" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D87" t="n">
         <v>0.0</v>
@@ -26020,13 +26272,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C127" t="n">
         <v>2.0</v>
       </c>
       <c r="D127" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E127" t="n">
         <v>1.0</v>
@@ -26630,6 +26882,132 @@
         <v>0.0</v>
       </c>
       <c r="U136" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="137" customHeight="true" ht="15.0">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7/12/2020</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H137"/>
+      <c r="I137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S137"/>
+      <c r="T137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U137" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="138" customHeight="true" ht="15.0">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7/13/2020</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H138"/>
+      <c r="I138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S138"/>
+      <c r="T138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U138" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -32025,6 +32403,80 @@
       <c r="S136"/>
       <c r="T136"/>
       <c r="U136"/>
+    </row>
+    <row r="137" customHeight="true" ht="15.0">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7/12/2020</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+    </row>
+    <row r="138" customHeight="true" ht="15.0">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7/13/2020</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -37422,6 +37874,80 @@
       <c r="T136"/>
       <c r="U136"/>
     </row>
+    <row r="137" customHeight="true" ht="15.0">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7/12/2020</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+    </row>
+    <row r="138" customHeight="true" ht="15.0">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7/13/2020</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -42815,6 +43341,80 @@
       <c r="T136"/>
       <c r="U136"/>
     </row>
+    <row r="137" customHeight="true" ht="15.0">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7/12/2020</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+    </row>
+    <row r="138" customHeight="true" ht="15.0">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7/13/2020</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -43016,10 +43616,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.0</v>
+        <v>982.0</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0</v>
+        <v>242.0</v>
       </c>
       <c r="D4" t="n">
         <v>98.0</v>
@@ -51738,6 +52338,132 @@
         <v>0.0</v>
       </c>
       <c r="U137" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="138" customHeight="true" ht="15.0">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7/12/2020</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H138"/>
+      <c r="I138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S138"/>
+      <c r="T138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U138" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="139" customHeight="true" ht="15.0">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7/13/2020</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H139"/>
+      <c r="I139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S139"/>
+      <c r="T139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U139" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -57075,13 +57801,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C92" t="n">
         <v>2.0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E92" t="n">
         <v>1.0</v>
@@ -57362,7 +58088,9 @@
       </c>
       <c r="R96"/>
       <c r="S96"/>
-      <c r="T96"/>
+      <c r="T96" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U96" t="n">
         <v>0.0</v>
       </c>
@@ -57421,7 +58149,9 @@
       </c>
       <c r="R97"/>
       <c r="S97"/>
-      <c r="T97"/>
+      <c r="T97" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U97" t="n">
         <v>0.0</v>
       </c>
@@ -57480,7 +58210,9 @@
       </c>
       <c r="R98"/>
       <c r="S98"/>
-      <c r="T98"/>
+      <c r="T98" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U98" t="n">
         <v>0.0</v>
       </c>
@@ -57539,7 +58271,9 @@
       </c>
       <c r="R99"/>
       <c r="S99"/>
-      <c r="T99"/>
+      <c r="T99" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U99" t="n">
         <v>0.0</v>
       </c>
@@ -57598,7 +58332,9 @@
       </c>
       <c r="R100"/>
       <c r="S100"/>
-      <c r="T100"/>
+      <c r="T100" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U100" t="n">
         <v>0.0</v>
       </c>
@@ -57657,7 +58393,9 @@
       </c>
       <c r="R101"/>
       <c r="S101"/>
-      <c r="T101"/>
+      <c r="T101" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U101" t="n">
         <v>0.0</v>
       </c>
@@ -57669,7 +58407,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C102" t="n">
         <v>5.0</v>
@@ -57716,7 +58454,9 @@
       </c>
       <c r="R102"/>
       <c r="S102"/>
-      <c r="T102"/>
+      <c r="T102" t="n">
+        <v>1.0</v>
+      </c>
       <c r="U102" t="n">
         <v>0.0</v>
       </c>
@@ -57775,7 +58515,9 @@
       </c>
       <c r="R103"/>
       <c r="S103"/>
-      <c r="T103"/>
+      <c r="T103" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U103" t="n">
         <v>0.0</v>
       </c>
@@ -57832,7 +58574,9 @@
       </c>
       <c r="R104"/>
       <c r="S104"/>
-      <c r="T104"/>
+      <c r="T104" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U104" t="n">
         <v>0.0</v>
       </c>
@@ -57885,7 +58629,9 @@
       </c>
       <c r="R105"/>
       <c r="S105"/>
-      <c r="T105"/>
+      <c r="T105" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U105" t="n">
         <v>0.0</v>
       </c>
@@ -57936,7 +58682,9 @@
       </c>
       <c r="R106"/>
       <c r="S106"/>
-      <c r="T106"/>
+      <c r="T106" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U106" t="n">
         <v>0.0</v>
       </c>
@@ -57989,7 +58737,9 @@
       </c>
       <c r="R107"/>
       <c r="S107"/>
-      <c r="T107"/>
+      <c r="T107" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U107" t="n">
         <v>0.0</v>
       </c>
@@ -58042,7 +58792,9 @@
       </c>
       <c r="R108"/>
       <c r="S108"/>
-      <c r="T108"/>
+      <c r="T108" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U108" t="n">
         <v>0.0</v>
       </c>
@@ -58097,7 +58849,9 @@
       </c>
       <c r="R109"/>
       <c r="S109"/>
-      <c r="T109"/>
+      <c r="T109" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U109" t="n">
         <v>0.0</v>
       </c>
@@ -58152,7 +58906,9 @@
       </c>
       <c r="R110"/>
       <c r="S110"/>
-      <c r="T110"/>
+      <c r="T110" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U110" t="n">
         <v>0.0</v>
       </c>
@@ -58201,7 +58957,9 @@
       </c>
       <c r="R111"/>
       <c r="S111"/>
-      <c r="T111"/>
+      <c r="T111" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U111" t="n">
         <v>0.0</v>
       </c>
@@ -58252,8 +59010,12 @@
       </c>
       <c r="R112"/>
       <c r="S112"/>
-      <c r="T112"/>
-      <c r="U112"/>
+      <c r="T112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="113" customHeight="true" ht="15.0">
       <c r="A113" t="inlineStr">
@@ -58262,7 +59024,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C113" t="n">
         <v>1.0</v>
@@ -58284,7 +59046,9 @@
       </c>
       <c r="I113"/>
       <c r="J113"/>
-      <c r="K113"/>
+      <c r="K113" t="n">
+        <v>1.0</v>
+      </c>
       <c r="L113"/>
       <c r="M113"/>
       <c r="N113" t="n">
@@ -58299,8 +59063,12 @@
       </c>
       <c r="R113"/>
       <c r="S113"/>
-      <c r="T113"/>
-      <c r="U113"/>
+      <c r="T113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="114" customHeight="true" ht="15.0">
       <c r="A114" t="inlineStr">
@@ -58331,7 +59099,9 @@
       </c>
       <c r="I114"/>
       <c r="J114"/>
-      <c r="K114"/>
+      <c r="K114" t="n">
+        <v>0.0</v>
+      </c>
       <c r="L114"/>
       <c r="M114"/>
       <c r="N114" t="n">
@@ -58346,8 +59116,12 @@
       </c>
       <c r="R114"/>
       <c r="S114"/>
-      <c r="T114"/>
-      <c r="U114"/>
+      <c r="T114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="115" customHeight="true" ht="15.0">
       <c r="A115" t="inlineStr">
@@ -58378,7 +59152,9 @@
       </c>
       <c r="I115"/>
       <c r="J115"/>
-      <c r="K115"/>
+      <c r="K115" t="n">
+        <v>0.0</v>
+      </c>
       <c r="L115"/>
       <c r="M115"/>
       <c r="N115" t="n">
@@ -58393,8 +59169,12 @@
       </c>
       <c r="R115"/>
       <c r="S115"/>
-      <c r="T115"/>
-      <c r="U115"/>
+      <c r="T115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="116" customHeight="true" ht="15.0">
       <c r="A116" t="inlineStr">
@@ -58442,8 +59222,12 @@
       </c>
       <c r="R116"/>
       <c r="S116"/>
-      <c r="T116"/>
-      <c r="U116"/>
+      <c r="T116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="117" customHeight="true" ht="15.0">
       <c r="A117" t="inlineStr">
@@ -58496,7 +59280,9 @@
       <c r="T117" t="n">
         <v>1.0</v>
       </c>
-      <c r="U117"/>
+      <c r="U117" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="118" customHeight="true" ht="15.0">
       <c r="A118" t="inlineStr">
@@ -58505,10 +59291,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C118" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D118" t="n">
         <v>0.0</v>
@@ -58549,7 +59335,9 @@
       <c r="T118" t="n">
         <v>0.0</v>
       </c>
-      <c r="U118"/>
+      <c r="U118" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119" customHeight="true" ht="15.0">
       <c r="A119" t="inlineStr">
@@ -58601,8 +59389,12 @@
       </c>
       <c r="R119"/>
       <c r="S119"/>
-      <c r="T119"/>
-      <c r="U119"/>
+      <c r="T119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="120" customHeight="true" ht="15.0">
       <c r="A120" t="inlineStr">
@@ -58652,8 +59444,12 @@
       </c>
       <c r="R120"/>
       <c r="S120"/>
-      <c r="T120"/>
-      <c r="U120"/>
+      <c r="T120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="121" customHeight="true" ht="15.0">
       <c r="A121" t="inlineStr">
@@ -58703,8 +59499,12 @@
       </c>
       <c r="R121"/>
       <c r="S121"/>
-      <c r="T121"/>
-      <c r="U121"/>
+      <c r="T121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U121" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="122" customHeight="true" ht="15.0">
       <c r="A122" t="inlineStr">
@@ -58754,8 +59554,12 @@
       </c>
       <c r="R122"/>
       <c r="S122"/>
-      <c r="T122"/>
-      <c r="U122"/>
+      <c r="T122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U122" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="123" customHeight="true" ht="15.0">
       <c r="A123" t="inlineStr">
@@ -58764,7 +59568,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C123" t="n">
         <v>2.0</v>
@@ -58776,7 +59580,7 @@
         <v>0.0</v>
       </c>
       <c r="F123" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G123" t="n">
         <v>0.0</v>
@@ -58807,8 +59611,12 @@
       </c>
       <c r="R123"/>
       <c r="S123"/>
-      <c r="T123"/>
-      <c r="U123"/>
+      <c r="T123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U123" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="124" customHeight="true" ht="15.0">
       <c r="A124" t="inlineStr">
@@ -58860,8 +59668,12 @@
       </c>
       <c r="R124"/>
       <c r="S124"/>
-      <c r="T124"/>
-      <c r="U124"/>
+      <c r="T124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U124" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="125" customHeight="true" ht="15.0">
       <c r="A125" t="inlineStr">
@@ -58913,8 +59725,12 @@
       </c>
       <c r="R125"/>
       <c r="S125"/>
-      <c r="T125"/>
-      <c r="U125"/>
+      <c r="T125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U125" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="126" customHeight="true" ht="15.0">
       <c r="A126" t="inlineStr">
@@ -58923,7 +59739,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C126" t="n">
         <v>2.0</v>
@@ -58951,7 +59767,9 @@
         <v>0.0</v>
       </c>
       <c r="L126"/>
-      <c r="M126"/>
+      <c r="M126" t="n">
+        <v>1.0</v>
+      </c>
       <c r="N126" t="n">
         <v>0.0</v>
       </c>
@@ -58966,8 +59784,12 @@
       </c>
       <c r="R126"/>
       <c r="S126"/>
-      <c r="T126"/>
-      <c r="U126"/>
+      <c r="T126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U126" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="127" customHeight="true" ht="15.0">
       <c r="A127" t="inlineStr">
@@ -59017,8 +59839,12 @@
       </c>
       <c r="R127"/>
       <c r="S127"/>
-      <c r="T127"/>
-      <c r="U127"/>
+      <c r="T127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U127" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="128" customHeight="true" ht="15.0">
       <c r="A128" t="inlineStr">
@@ -59070,8 +59896,12 @@
       </c>
       <c r="R128"/>
       <c r="S128"/>
-      <c r="T128"/>
-      <c r="U128"/>
+      <c r="T128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U128" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="129" customHeight="true" ht="15.0">
       <c r="A129" t="inlineStr">
@@ -59125,8 +59955,12 @@
       </c>
       <c r="R129"/>
       <c r="S129"/>
-      <c r="T129"/>
-      <c r="U129"/>
+      <c r="T129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U129" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="130" customHeight="true" ht="15.0">
       <c r="A130" t="inlineStr">
@@ -59135,16 +59969,16 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="C130" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D130" t="n">
         <v>0.0</v>
       </c>
       <c r="E130" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F130" t="n">
         <v>0.0</v>
@@ -59163,7 +59997,9 @@
         <v>0.0</v>
       </c>
       <c r="L130"/>
-      <c r="M130"/>
+      <c r="M130" t="n">
+        <v>1.0</v>
+      </c>
       <c r="N130" t="n">
         <v>0.0</v>
       </c>
@@ -59176,8 +60012,12 @@
       </c>
       <c r="R130"/>
       <c r="S130"/>
-      <c r="T130"/>
-      <c r="U130"/>
+      <c r="T130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U130" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131" customHeight="true" ht="15.0">
       <c r="A131" t="inlineStr">
@@ -59186,7 +60026,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C131" t="n">
         <v>0.0</v>
@@ -59195,13 +60035,13 @@
         <v>0.0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F131" t="n">
         <v>1.0</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H131"/>
       <c r="I131" t="n">
@@ -59214,7 +60054,9 @@
         <v>0.0</v>
       </c>
       <c r="L131"/>
-      <c r="M131"/>
+      <c r="M131" t="n">
+        <v>0.0</v>
+      </c>
       <c r="N131" t="n">
         <v>0.0</v>
       </c>
@@ -59227,7 +60069,9 @@
       </c>
       <c r="R131"/>
       <c r="S131"/>
-      <c r="T131"/>
+      <c r="T131" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U131"/>
     </row>
     <row r="132" customHeight="true" ht="15.0">
@@ -59237,13 +60081,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C132" t="n">
         <v>2.0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E132" t="n">
         <v>0.0</v>
@@ -59265,7 +60109,9 @@
       <c r="L132" t="n">
         <v>1.0</v>
       </c>
-      <c r="M132"/>
+      <c r="M132" t="n">
+        <v>0.0</v>
+      </c>
       <c r="N132"/>
       <c r="O132"/>
       <c r="P132" t="n">
@@ -59276,7 +60122,9 @@
       </c>
       <c r="R132"/>
       <c r="S132"/>
-      <c r="T132"/>
+      <c r="T132" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U132"/>
     </row>
     <row r="133" customHeight="true" ht="15.0">
@@ -59286,7 +60134,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C133" t="n">
         <v>1.0</v>
@@ -59295,7 +60143,7 @@
         <v>0.0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F133" t="n">
         <v>1.0</v>
@@ -59310,7 +60158,9 @@
       </c>
       <c r="K133"/>
       <c r="L133"/>
-      <c r="M133"/>
+      <c r="M133" t="n">
+        <v>0.0</v>
+      </c>
       <c r="N133"/>
       <c r="O133"/>
       <c r="P133" t="n">
@@ -59321,7 +60171,9 @@
       </c>
       <c r="R133"/>
       <c r="S133"/>
-      <c r="T133"/>
+      <c r="T133" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U133"/>
     </row>
     <row r="134" customHeight="true" ht="15.0">
@@ -59331,10 +60183,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C134" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D134" t="n">
         <v>0.0</v>
@@ -59353,17 +60205,109 @@
       <c r="J134"/>
       <c r="K134"/>
       <c r="L134"/>
-      <c r="M134"/>
+      <c r="M134" t="n">
+        <v>0.0</v>
+      </c>
       <c r="N134"/>
       <c r="O134"/>
       <c r="P134" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q134"/>
       <c r="R134"/>
       <c r="S134"/>
-      <c r="T134"/>
+      <c r="T134" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U134"/>
+    </row>
+    <row r="135" customHeight="true" ht="15.0">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7/12/2020</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U135"/>
+    </row>
+    <row r="136" customHeight="true" ht="15.0">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7/13/2020</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136"/>
+      <c r="T136"/>
+      <c r="U136"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -64559,6 +65503,72 @@
       <c r="T134"/>
       <c r="U134"/>
     </row>
+    <row r="135" customHeight="true" ht="15.0">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7/12/2020</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135"/>
+      <c r="U135"/>
+    </row>
+    <row r="136" customHeight="true" ht="15.0">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7/13/2020</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136"/>
+      <c r="T136"/>
+      <c r="U136"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data/original/spain/euskadi/datos-asistenciales.xlsx
+++ b/data/original/spain/euskadi/datos-asistenciales.xlsx
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>385.0</v>
+        <v>386.0</v>
       </c>
       <c r="C14" t="n">
-        <v>155.0</v>
+        <v>156.0</v>
       </c>
       <c r="D14" t="n">
         <v>45.0</v>
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>432.0</v>
+        <v>433.0</v>
       </c>
       <c r="C15" t="n">
-        <v>186.0</v>
+        <v>187.0</v>
       </c>
       <c r="D15" t="n">
         <v>49.0</v>
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>462.0</v>
+        <v>463.0</v>
       </c>
       <c r="C16" t="n">
-        <v>197.0</v>
+        <v>198.0</v>
       </c>
       <c r="D16" t="n">
         <v>50.0</v>
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1107.0</v>
+        <v>1109.0</v>
       </c>
       <c r="C47" t="n">
-        <v>161.0</v>
+        <v>163.0</v>
       </c>
       <c r="D47" t="n">
         <v>174.0</v>
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1036.0</v>
+        <v>1038.0</v>
       </c>
       <c r="C48" t="n">
-        <v>143.0</v>
+        <v>145.0</v>
       </c>
       <c r="D48" t="n">
         <v>149.0</v>
@@ -3248,10 +3248,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>964.0</v>
+        <v>966.0</v>
       </c>
       <c r="C49" t="n">
-        <v>131.0</v>
+        <v>133.0</v>
       </c>
       <c r="D49" t="n">
         <v>136.0</v>
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>922.0</v>
+        <v>924.0</v>
       </c>
       <c r="C50" t="n">
-        <v>121.0</v>
+        <v>123.0</v>
       </c>
       <c r="D50" t="n">
         <v>126.0</v>
@@ -3382,10 +3382,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>841.0</v>
+        <v>843.0</v>
       </c>
       <c r="C51" t="n">
-        <v>110.0</v>
+        <v>112.0</v>
       </c>
       <c r="D51" t="n">
         <v>114.0</v>
@@ -3449,10 +3449,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>831.0</v>
+        <v>833.0</v>
       </c>
       <c r="C52" t="n">
-        <v>106.0</v>
+        <v>108.0</v>
       </c>
       <c r="D52" t="n">
         <v>118.0</v>
@@ -3516,10 +3516,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>831.0</v>
+        <v>833.0</v>
       </c>
       <c r="C53" t="n">
-        <v>108.0</v>
+        <v>110.0</v>
       </c>
       <c r="D53" t="n">
         <v>115.0</v>
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>164.0</v>
+        <v>165.0</v>
       </c>
       <c r="C132" t="n">
         <v>26.0</v>
@@ -8619,7 +8619,7 @@
         <v>7.0</v>
       </c>
       <c r="F132" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G132" t="n">
         <v>5.0</v>
@@ -8670,7 +8670,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>164.0</v>
+        <v>165.0</v>
       </c>
       <c r="C133" t="n">
         <v>28.0</v>
@@ -8682,7 +8682,7 @@
         <v>7.0</v>
       </c>
       <c r="F133" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G133" t="n">
         <v>4.0</v>
@@ -8733,7 +8733,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>154.0</v>
+        <v>155.0</v>
       </c>
       <c r="C134" t="n">
         <v>24.0</v>
@@ -8745,7 +8745,7 @@
         <v>6.0</v>
       </c>
       <c r="F134" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G134" t="n">
         <v>4.0</v>
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>148.0</v>
+        <v>149.0</v>
       </c>
       <c r="C135" t="n">
         <v>25.0</v>
@@ -8808,7 +8808,7 @@
         <v>8.0</v>
       </c>
       <c r="F135" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G135" t="n">
         <v>4.0</v>
@@ -9038,6 +9038,69 @@
         <v>5.0</v>
       </c>
       <c r="U138" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="139" customHeight="true" ht="15.0">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7/14/2020</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H139"/>
+      <c r="I139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S139"/>
+      <c r="T139" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U139" t="n">
         <v>34.0</v>
       </c>
     </row>
@@ -9888,10 +9951,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="D14" t="n">
         <v>10.0</v>
@@ -12099,10 +12162,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="C47" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D47" t="n">
         <v>9.0</v>
@@ -17592,7 +17655,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C132" t="n">
         <v>4.0</v>
@@ -17604,7 +17667,7 @@
         <v>4.0</v>
       </c>
       <c r="F132" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G132" t="n">
         <v>0.0</v>
@@ -18023,6 +18086,69 @@
         <v>1.0</v>
       </c>
       <c r="U138" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="139" customHeight="true" ht="15.0">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7/14/2020</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H139"/>
+      <c r="I139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S139"/>
+      <c r="T139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U139" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -19074,10 +19200,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C17" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="D17" t="n">
         <v>2.0</v>
@@ -21553,10 +21679,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>115.0</v>
+        <v>117.0</v>
       </c>
       <c r="C54" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="D54" t="n">
         <v>26.0</v>
@@ -26829,7 +26955,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C136" t="n">
         <v>3.0</v>
@@ -26841,7 +26967,7 @@
         <v>0.0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G136" t="n">
         <v>0.0</v>
@@ -27008,6 +27134,69 @@
         <v>0.0</v>
       </c>
       <c r="U138" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="139" customHeight="true" ht="15.0">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7/14/2020</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H139"/>
+      <c r="I139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S139"/>
+      <c r="T139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U139" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -32477,6 +32666,43 @@
       <c r="S138"/>
       <c r="T138"/>
       <c r="U138"/>
+    </row>
+    <row r="139" customHeight="true" ht="15.0">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7/14/2020</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139"/>
+      <c r="S139"/>
+      <c r="T139"/>
+      <c r="U139"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -37948,6 +38174,43 @@
       <c r="T138"/>
       <c r="U138"/>
     </row>
+    <row r="139" customHeight="true" ht="15.0">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7/14/2020</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139"/>
+      <c r="S139"/>
+      <c r="T139"/>
+      <c r="U139"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -43415,6 +43678,43 @@
       <c r="T138"/>
       <c r="U138"/>
     </row>
+    <row r="139" customHeight="true" ht="15.0">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7/14/2020</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139"/>
+      <c r="S139"/>
+      <c r="T139"/>
+      <c r="U139"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -43616,7 +43916,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>982.0</v>
+        <v>984.0</v>
       </c>
       <c r="C4" t="n">
         <v>242.0</v>
@@ -43628,7 +43928,7 @@
         <v>61.0</v>
       </c>
       <c r="F4" t="n">
-        <v>110.0</v>
+        <v>111.0</v>
       </c>
       <c r="G4" t="n">
         <v>111.0</v>
@@ -43646,7 +43946,7 @@
         <v>15.0</v>
       </c>
       <c r="L4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M4" t="n">
         <v>9.0</v>
@@ -52285,7 +52585,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C137" t="n">
         <v>0.0</v>
@@ -52297,7 +52597,7 @@
         <v>0.0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G137" t="n">
         <v>0.0</v>
@@ -52464,6 +52764,69 @@
         <v>0.0</v>
       </c>
       <c r="U139" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="140" customHeight="true" ht="15.0">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>7/14/2020</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H140"/>
+      <c r="I140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S140"/>
+      <c r="T140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U140" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -57050,13 +57413,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C79" t="n">
         <v>3.0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E79" t="n">
         <v>0.0</v>
@@ -57168,7 +57531,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -57211,7 +57574,7 @@
         <v>0.0</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R81"/>
       <c r="S81"/>
@@ -57685,7 +58048,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -57694,7 +58057,7 @@
         <v>0.0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F90" t="n">
         <v>1.0</v>
@@ -59346,13 +59709,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C119" t="n">
         <v>0.0</v>
       </c>
       <c r="D119" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E119" t="n">
         <v>0.0</v>
@@ -59820,7 +60183,9 @@
         <v>0.0</v>
       </c>
       <c r="J127"/>
-      <c r="K127"/>
+      <c r="K127" t="n">
+        <v>0.0</v>
+      </c>
       <c r="L127" t="n">
         <v>1.0</v>
       </c>
@@ -59853,7 +60218,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C128" t="n">
         <v>0.0</v>
@@ -59889,7 +60254,7 @@
         <v>0.0</v>
       </c>
       <c r="P128" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q128" t="n">
         <v>0.0</v>
@@ -59910,13 +60275,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C129" t="n">
         <v>1.0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E129" t="n">
         <v>0.0</v>
@@ -59969,10 +60334,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C130" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D130" t="n">
         <v>0.0</v>
@@ -60026,19 +60391,19 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C131" t="n">
         <v>0.0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E131" t="n">
         <v>1.0</v>
       </c>
       <c r="F131" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G131" t="n">
         <v>1.0</v>
@@ -60273,13 +60638,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D136" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E136" t="n">
         <v>1.0</v>
@@ -60306,8 +60671,51 @@
       <c r="Q136"/>
       <c r="R136"/>
       <c r="S136"/>
-      <c r="T136"/>
+      <c r="T136" t="n">
+        <v>0.0</v>
+      </c>
       <c r="U136"/>
+    </row>
+    <row r="137" customHeight="true" ht="15.0">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7/14/2020</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -65372,13 +65780,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C131" t="n">
         <v>0.0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E131"/>
       <c r="F131"/>
@@ -65442,17 +65850,17 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C133" t="n">
         <v>0.0</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E133"/>
       <c r="F133" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G133"/>
       <c r="H133"/>
@@ -65482,7 +65890,9 @@
       <c r="C134" t="n">
         <v>0.0</v>
       </c>
-      <c r="D134"/>
+      <c r="D134" t="n">
+        <v>0.0</v>
+      </c>
       <c r="E134"/>
       <c r="F134" t="n">
         <v>0.0</v>
@@ -65515,7 +65925,9 @@
       <c r="C135" t="n">
         <v>0.0</v>
       </c>
-      <c r="D135"/>
+      <c r="D135" t="n">
+        <v>0.0</v>
+      </c>
       <c r="E135"/>
       <c r="F135" t="n">
         <v>0.0</v>
@@ -65548,7 +65960,9 @@
       <c r="C136" t="n">
         <v>0.0</v>
       </c>
-      <c r="D136"/>
+      <c r="D136" t="n">
+        <v>0.0</v>
+      </c>
       <c r="E136"/>
       <c r="F136" t="n">
         <v>0.0</v>
@@ -65569,6 +65983,39 @@
       <c r="T136"/>
       <c r="U136"/>
     </row>
+    <row r="137" customHeight="true" ht="15.0">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7/14/2020</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data/original/spain/euskadi/datos-asistenciales.xlsx
+++ b/data/original/spain/euskadi/datos-asistenciales.xlsx
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>386.0</v>
+        <v>387.0</v>
       </c>
       <c r="C14" t="n">
         <v>156.0</v>
       </c>
       <c r="D14" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="E14" t="n">
         <v>18.0</v>
@@ -1104,13 +1104,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>496.0</v>
+        <v>497.0</v>
       </c>
       <c r="C17" t="n">
         <v>213.0</v>
       </c>
       <c r="D17" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="E17" t="n">
         <v>26.0</v>
@@ -1171,13 +1171,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>529.0</v>
+        <v>530.0</v>
       </c>
       <c r="C18" t="n">
         <v>222.0</v>
       </c>
       <c r="D18" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="E18" t="n">
         <v>27.0</v>
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.0</v>
+        <v>801.0</v>
       </c>
       <c r="C22" t="n">
         <v>285.0</v>
       </c>
       <c r="D22" t="n">
-        <v>107.0</v>
+        <v>108.0</v>
       </c>
       <c r="E22" t="n">
         <v>50.0</v>
@@ -1506,13 +1506,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>900.0</v>
+        <v>901.0</v>
       </c>
       <c r="C23" t="n">
         <v>305.0</v>
       </c>
       <c r="D23" t="n">
-        <v>119.0</v>
+        <v>120.0</v>
       </c>
       <c r="E23" t="n">
         <v>56.0</v>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1063.0</v>
+        <v>1064.0</v>
       </c>
       <c r="C24" t="n">
         <v>336.0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.0</v>
+        <v>148.0</v>
       </c>
       <c r="E24" t="n">
         <v>65.0</v>
@@ -1640,13 +1640,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1159.0</v>
+        <v>1160.0</v>
       </c>
       <c r="C25" t="n">
         <v>334.0</v>
       </c>
       <c r="D25" t="n">
-        <v>165.0</v>
+        <v>166.0</v>
       </c>
       <c r="E25" t="n">
         <v>73.0</v>
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1243.0</v>
+        <v>1244.0</v>
       </c>
       <c r="C26" t="n">
         <v>327.0</v>
       </c>
       <c r="D26" t="n">
-        <v>180.0</v>
+        <v>181.0</v>
       </c>
       <c r="E26" t="n">
         <v>92.0</v>
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1437.0</v>
+        <v>1438.0</v>
       </c>
       <c r="C27" t="n">
         <v>355.0</v>
       </c>
       <c r="D27" t="n">
-        <v>213.0</v>
+        <v>214.0</v>
       </c>
       <c r="E27" t="n">
         <v>103.0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1556.0</v>
+        <v>1557.0</v>
       </c>
       <c r="C28" t="n">
         <v>365.0</v>
       </c>
       <c r="D28" t="n">
-        <v>231.0</v>
+        <v>232.0</v>
       </c>
       <c r="E28" t="n">
         <v>118.0</v>
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>165.0</v>
+        <v>164.0</v>
       </c>
       <c r="C132" t="n">
         <v>26.0</v>
@@ -8619,7 +8619,7 @@
         <v>7.0</v>
       </c>
       <c r="F132" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="G132" t="n">
         <v>5.0</v>
@@ -8670,7 +8670,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>165.0</v>
+        <v>164.0</v>
       </c>
       <c r="C133" t="n">
         <v>28.0</v>
@@ -8682,7 +8682,7 @@
         <v>7.0</v>
       </c>
       <c r="F133" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G133" t="n">
         <v>4.0</v>
@@ -8733,7 +8733,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>155.0</v>
+        <v>154.0</v>
       </c>
       <c r="C134" t="n">
         <v>24.0</v>
@@ -8745,7 +8745,7 @@
         <v>6.0</v>
       </c>
       <c r="F134" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G134" t="n">
         <v>4.0</v>
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>149.0</v>
+        <v>148.0</v>
       </c>
       <c r="C135" t="n">
         <v>25.0</v>
@@ -8808,7 +8808,7 @@
         <v>8.0</v>
       </c>
       <c r="F135" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G135" t="n">
         <v>4.0</v>
@@ -9048,7 +9048,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>164.0</v>
+        <v>163.0</v>
       </c>
       <c r="C139" t="n">
         <v>25.0</v>
@@ -9088,7 +9088,7 @@
         <v>11.0</v>
       </c>
       <c r="P139" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q139" t="n">
         <v>11.0</v>
@@ -9101,6 +9101,65 @@
         <v>4.0</v>
       </c>
       <c r="U139" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="140" customHeight="true" ht="15.0">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>7/15/2020</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H140"/>
+      <c r="I140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J140"/>
+      <c r="K140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L140"/>
+      <c r="M140" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S140"/>
+      <c r="T140" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U140" t="n">
         <v>34.0</v>
       </c>
     </row>
@@ -9951,13 +10010,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="C14" t="n">
         <v>35.0</v>
       </c>
       <c r="D14" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="E14" t="n">
         <v>5.0</v>
@@ -10152,13 +10211,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="C17" t="n">
         <v>34.0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E17" t="n">
         <v>4.0</v>
@@ -10487,13 +10546,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.0</v>
+        <v>156.0</v>
       </c>
       <c r="C22" t="n">
         <v>52.0</v>
       </c>
       <c r="D22" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="E22" t="n">
         <v>11.0</v>
@@ -17655,7 +17714,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C132" t="n">
         <v>4.0</v>
@@ -17667,7 +17726,7 @@
         <v>4.0</v>
       </c>
       <c r="F132" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G132" t="n">
         <v>0.0</v>
@@ -18149,6 +18208,65 @@
         <v>0.0</v>
       </c>
       <c r="U139" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="140" customHeight="true" ht="15.0">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>7/15/2020</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H140"/>
+      <c r="I140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J140"/>
+      <c r="K140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L140"/>
+      <c r="M140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S140"/>
+      <c r="T140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U140" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -19066,13 +19184,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
       </c>
       <c r="D15" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E15" t="n">
         <v>2.0</v>
@@ -19334,13 +19452,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C19" t="n">
         <v>32.0</v>
       </c>
       <c r="D19" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E19" t="n">
         <v>6.0</v>
@@ -20004,13 +20122,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>177.0</v>
+        <v>178.0</v>
       </c>
       <c r="C29" t="n">
         <v>57.0</v>
       </c>
       <c r="D29" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="E29" t="n">
         <v>7.0</v>
@@ -26955,7 +27073,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C136" t="n">
         <v>3.0</v>
@@ -26967,7 +27085,7 @@
         <v>0.0</v>
       </c>
       <c r="F136" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G136" t="n">
         <v>0.0</v>
@@ -27144,7 +27262,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C139" t="n">
         <v>6.0</v>
@@ -27184,7 +27302,7 @@
         <v>0.0</v>
       </c>
       <c r="P139" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q139" t="n">
         <v>0.0</v>
@@ -27197,6 +27315,65 @@
         <v>1.0</v>
       </c>
       <c r="U139" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="140" customHeight="true" ht="15.0">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>7/15/2020</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H140"/>
+      <c r="I140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J140"/>
+      <c r="K140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L140"/>
+      <c r="M140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S140"/>
+      <c r="T140" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U140" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -32703,6 +32880,43 @@
       <c r="S139"/>
       <c r="T139"/>
       <c r="U139"/>
+    </row>
+    <row r="140" customHeight="true" ht="15.0">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>7/15/2020</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140"/>
+      <c r="R140"/>
+      <c r="S140"/>
+      <c r="T140"/>
+      <c r="U140"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -38211,6 +38425,43 @@
       <c r="T139"/>
       <c r="U139"/>
     </row>
+    <row r="140" customHeight="true" ht="15.0">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>7/15/2020</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140"/>
+      <c r="R140"/>
+      <c r="S140"/>
+      <c r="T140"/>
+      <c r="U140"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -43715,6 +43966,43 @@
       <c r="T139"/>
       <c r="U139"/>
     </row>
+    <row r="140" customHeight="true" ht="15.0">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>7/15/2020</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140"/>
+      <c r="R140"/>
+      <c r="S140"/>
+      <c r="T140"/>
+      <c r="U140"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -43922,13 +44210,13 @@
         <v>242.0</v>
       </c>
       <c r="D4" t="n">
-        <v>98.0</v>
+        <v>99.0</v>
       </c>
       <c r="E4" t="n">
         <v>61.0</v>
       </c>
       <c r="F4" t="n">
-        <v>111.0</v>
+        <v>110.0</v>
       </c>
       <c r="G4" t="n">
         <v>111.0</v>
@@ -52585,7 +52873,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C137" t="n">
         <v>0.0</v>
@@ -52597,7 +52885,7 @@
         <v>0.0</v>
       </c>
       <c r="F137" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G137" t="n">
         <v>0.0</v>
@@ -52827,6 +53115,65 @@
         <v>0.0</v>
       </c>
       <c r="U140" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="141" customHeight="true" ht="15.0">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>7/15/2020</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H141"/>
+      <c r="I141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J141"/>
+      <c r="K141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L141"/>
+      <c r="M141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S141"/>
+      <c r="T141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U141" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -57061,7 +57408,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C73" t="n">
         <v>2.0</v>
@@ -57079,7 +57426,7 @@
         <v>4.0</v>
       </c>
       <c r="H73" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I73" t="n">
         <v>0.0</v>
@@ -59300,7 +59647,9 @@
       <c r="G111" t="n">
         <v>1.0</v>
       </c>
-      <c r="H111"/>
+      <c r="H111" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I111" t="n">
         <v>0.0</v>
       </c>
@@ -59876,7 +60225,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C122" t="n">
         <v>1.0</v>
@@ -59885,7 +60234,7 @@
         <v>4.0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F122" t="n">
         <v>0.0</v>
@@ -60218,13 +60567,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C128" t="n">
         <v>0.0</v>
       </c>
       <c r="D128" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E128" t="n">
         <v>0.0</v>
@@ -60477,7 +60826,9 @@
       <c r="M132" t="n">
         <v>0.0</v>
       </c>
-      <c r="N132"/>
+      <c r="N132" t="n">
+        <v>0.0</v>
+      </c>
       <c r="O132"/>
       <c r="P132" t="n">
         <v>1.0</v>
@@ -60526,7 +60877,9 @@
       <c r="M133" t="n">
         <v>0.0</v>
       </c>
-      <c r="N133"/>
+      <c r="N133" t="n">
+        <v>0.0</v>
+      </c>
       <c r="O133"/>
       <c r="P133" t="n">
         <v>0.0</v>
@@ -60548,13 +60901,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E134" t="n">
         <v>0.0</v>
@@ -60573,12 +60926,16 @@
       <c r="M134" t="n">
         <v>0.0</v>
       </c>
-      <c r="N134"/>
+      <c r="N134" t="n">
+        <v>0.0</v>
+      </c>
       <c r="O134"/>
       <c r="P134" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q134"/>
+      <c r="Q134" t="n">
+        <v>0.0</v>
+      </c>
       <c r="R134"/>
       <c r="S134"/>
       <c r="T134" t="n">
@@ -60618,12 +60975,16 @@
       <c r="M135" t="n">
         <v>0.0</v>
       </c>
-      <c r="N135"/>
+      <c r="N135" t="n">
+        <v>0.0</v>
+      </c>
       <c r="O135"/>
       <c r="P135" t="n">
         <v>0.0</v>
       </c>
-      <c r="Q135"/>
+      <c r="Q135" t="n">
+        <v>0.0</v>
+      </c>
       <c r="R135"/>
       <c r="S135"/>
       <c r="T135" t="n">
@@ -60638,7 +60999,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C136" t="n">
         <v>1.0</v>
@@ -60663,12 +61024,16 @@
       <c r="K136"/>
       <c r="L136"/>
       <c r="M136"/>
-      <c r="N136"/>
+      <c r="N136" t="n">
+        <v>0.0</v>
+      </c>
       <c r="O136"/>
       <c r="P136" t="n">
         <v>0.0</v>
       </c>
-      <c r="Q136"/>
+      <c r="Q136" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R136"/>
       <c r="S136"/>
       <c r="T136" t="n">
@@ -60706,16 +61071,61 @@
       <c r="K137"/>
       <c r="L137"/>
       <c r="M137"/>
-      <c r="N137"/>
+      <c r="N137" t="n">
+        <v>0.0</v>
+      </c>
       <c r="O137"/>
       <c r="P137" t="n">
         <v>0.0</v>
       </c>
-      <c r="Q137"/>
+      <c r="Q137" t="n">
+        <v>0.0</v>
+      </c>
       <c r="R137"/>
       <c r="S137"/>
       <c r="T137"/>
       <c r="U137"/>
+    </row>
+    <row r="138" customHeight="true" ht="15.0">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7/15/2020</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -65681,11 +66091,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C128"/>
       <c r="D128" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E128"/>
       <c r="F128"/>
@@ -66016,6 +66426,39 @@
       <c r="T137"/>
       <c r="U137"/>
     </row>
+    <row r="138" customHeight="true" ht="15.0">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7/15/2020</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
